--- a/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
+++ b/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
@@ -247,14 +247,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="35.57" min="1" max="1" customWidth="1"/>
-    <col width="40.71" min="2" max="2" customWidth="1"/>
-    <col width="39.29" min="3" max="3" customWidth="1"/>
-    <col width="28.57" min="4" max="4" customWidth="1"/>
-    <col width="38.14" min="5" max="5" customWidth="1"/>
-    <col width="24.43" min="6" max="6" customWidth="1"/>
-    <col width="23.57" min="7" max="7" customWidth="1"/>
-    <col width="21.71" min="8" max="8" customWidth="1"/>
+    <col width="35.86" min="1" max="1" customWidth="1"/>
+    <col width="41.14" min="2" max="2" customWidth="1"/>
+    <col width="39.71" min="3" max="3" customWidth="1"/>
+    <col width="28.86" min="4" max="4" customWidth="1"/>
+    <col width="38.43" min="5" max="5" customWidth="1"/>
+    <col width="24.71" min="6" max="6" customWidth="1"/>
+    <col width="23.86" min="7" max="7" customWidth="1"/>
+    <col width="22" min="8" max="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">

--- a/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
+++ b/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
@@ -44,55 +44,100 @@
     <t>09/2023</t>
   </si>
   <si>
+    <t>001 / 03070 / 126985</t>
+  </si>
+  <si>
+    <t>Cielo</t>
+  </si>
+  <si>
+    <t>VISA CREDITO A VISTA</t>
+  </si>
+  <si>
+    <t>Não informado</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Não Informado</t>
+  </si>
+  <si>
+    <t>001 / 3790 / 1355953</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>TICKET ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>341 / 5929 / 113644</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>CABAL VOUCHER</t>
+  </si>
+  <si>
+    <t>Sodexo</t>
+  </si>
+  <si>
+    <t>SODEXO ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>TICKET REFEICAO</t>
+  </si>
+  <si>
+    <t>001 / 3790 / 1355910</t>
+  </si>
+  <si>
     <t>001 / 03070 / 150266</t>
   </si>
   <si>
-    <t>Cielo</t>
-  </si>
-  <si>
     <t>ELO PARCELADO LOJA</t>
   </si>
   <si>
     <t>MASTER PARCELADO</t>
   </si>
   <si>
+    <t>SODEXO REFEICAO</t>
+  </si>
+  <si>
+    <t>341 / 5929 / 011364</t>
+  </si>
+  <si>
+    <t>Green Card</t>
+  </si>
+  <si>
+    <t>Green Card Débito</t>
+  </si>
+  <si>
+    <t>341 / 059290 / 113644</t>
+  </si>
+  <si>
+    <t>UpBrasil</t>
+  </si>
+  <si>
+    <t>UpBrasil Crédito</t>
+  </si>
+  <si>
     <t>VISA PARCELADO LOJA</t>
   </si>
   <si>
     <t>001 / 3790 / 135591X</t>
   </si>
   <si>
-    <t>Sodexo</t>
-  </si>
-  <si>
-    <t>SODEXO ALIMENTACAO</t>
-  </si>
-  <si>
-    <t>SODEXO REFEICAO</t>
-  </si>
-  <si>
-    <t>001 / 3790 / 1355953</t>
-  </si>
-  <si>
-    <t>Ticket</t>
+    <t>VR ALIMENTACAO</t>
   </si>
   <si>
     <t>Ticket Flex</t>
   </si>
   <si>
-    <t>001 / 3790 / 1355910</t>
-  </si>
-  <si>
-    <t>TICKET REFEICAO</t>
-  </si>
-  <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>Não Informado</t>
-  </si>
-  <si>
-    <t>VR ALIMENTACAO</t>
+    <t>AMEX CREDITO PARCELADO</t>
+  </si>
+  <si>
+    <t>UpBrasil Convênio</t>
   </si>
   <si>
     <t>237 / 30457 / 105546</t>
@@ -102,51 +147,6 @@
   </si>
   <si>
     <t>Valecard Voucher</t>
-  </si>
-  <si>
-    <t>TICKET ALIMENTACAO</t>
-  </si>
-  <si>
-    <t>341 / 5929 / 011364</t>
-  </si>
-  <si>
-    <t>Green Card</t>
-  </si>
-  <si>
-    <t>Green Card Débito</t>
-  </si>
-  <si>
-    <t>Não informado</t>
-  </si>
-  <si>
-    <t>341 / 5929 / 113644</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>CABAL VOUCHER</t>
-  </si>
-  <si>
-    <t>341 / 059290 / 113644</t>
-  </si>
-  <si>
-    <t>UpBrasil</t>
-  </si>
-  <si>
-    <t>UpBrasil Convênio</t>
-  </si>
-  <si>
-    <t>UpBrasil Crédito</t>
-  </si>
-  <si>
-    <t>AMEX CREDITO PARCELADO</t>
-  </si>
-  <si>
-    <t>001 / 03070 / 126985</t>
-  </si>
-  <si>
-    <t>VISA CREDITO A VISTA</t>
   </si>
   <si>
     <t>125.476,92</t>
@@ -288,7 +288,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>45170</v>
+        <v>45195</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -300,13 +300,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>231.45</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>-211.8</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>231.45</v>
+        <v>-211.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -314,25 +314,25 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>45170</v>
+        <v>45175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>523.23</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0</v>
+        <v>-58.86</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>523.23</v>
+        <v>-58.86</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -340,25 +340,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>502.98</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0</v>
+        <v>-6.76</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>502.98</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -366,25 +366,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>45170</v>
+        <v>45189</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="5" t="n">
-        <v>920.08</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.03</v>
+        <v>-4.47</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>912.05</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -392,25 +392,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>45170</v>
+        <v>45196</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="5" t="n">
-        <v>420.86</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-8.03</v>
+        <v>-2.39</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>412.83</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -418,25 +418,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>45170</v>
+        <v>45182</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>977.4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-8.03</v>
+        <v>-1.04</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>969.37</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -444,25 +444,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>45170</v>
+        <v>45182</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>887.32</v>
+        <v>1.46</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>879.29</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>45170</v>
+        <v>45184</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -482,13 +482,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>561.32</v>
+        <v>17.38</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>561.32</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -496,25 +496,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>45173</v>
+        <v>45177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160.49</v>
+        <v>34.89</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>160.49</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -522,25 +522,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>45173</v>
+        <v>45191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2149.52</v>
+        <v>39.82</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2149.52</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -548,25 +548,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>45173</v>
+        <v>45196</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1432.09</v>
+        <v>46.92</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1432.09</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -574,25 +574,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>45173</v>
+        <v>45194</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7484.01</v>
+        <v>57.26</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7484.01</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -600,25 +600,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>45173</v>
+        <v>45187</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1927.93</v>
+        <v>69.65</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1927.93</v>
+        <v>69.65</v>
       </c>
     </row>
     <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>45174</v>
+        <v>45196</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>369.68</v>
+        <v>81.24</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>369.68</v>
+        <v>81.24</v>
       </c>
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -652,25 +652,25 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>45174</v>
+        <v>45187</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>395.24</v>
+        <v>87.28</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>395.24</v>
+        <v>87.28</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -678,25 +678,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>45174</v>
+        <v>45187</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F17" s="5" t="n">
-        <v>0</v>
+        <v>92.53</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.76</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.76</v>
+        <v>92.53</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -704,25 +704,25 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>45174</v>
+        <v>45181</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>348.15</v>
+        <v>99.33</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>348.15</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -730,25 +730,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>45174</v>
+        <v>45184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14463.73</v>
+        <v>117.12</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>14463.73</v>
+        <v>109.09</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -756,25 +756,25 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>45175</v>
+        <v>45190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>325.04</v>
+        <v>109.44</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>325.04</v>
+        <v>109.44</v>
       </c>
     </row>
     <row r="21" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -782,25 +782,25 @@
         <v>8</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>45175</v>
+        <v>45182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>536.09</v>
+        <v>121.53</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>536.09</v>
+        <v>121.53</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -808,25 +808,25 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>45175</v>
+        <v>45184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>772.73</v>
+        <v>132.16</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>772.73</v>
+        <v>124.13</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -834,25 +834,25 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>45175</v>
+        <v>45191</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1483.75</v>
+        <v>150.66</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1483.75</v>
+        <v>142.63</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -863,22 +863,22 @@
         <v>45175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>941.23</v>
+        <v>142.7</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>941.23</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="25" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -886,25 +886,25 @@
         <v>8</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>45175</v>
+        <v>45182</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F25" s="5" t="n">
-        <v>142.7</v>
+        <v>150.64</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>142.7</v>
+        <v>150.64</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -912,25 +912,25 @@
         <v>8</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>45175</v>
+        <v>45173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0</v>
+        <v>160.49</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>-58.86</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>-58.86</v>
+        <v>160.49</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -938,25 +938,25 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>45177</v>
+        <v>45197</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>293.82</v>
+        <v>165.22</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>293.82</v>
+        <v>165.22</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -964,25 +964,25 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>45177</v>
+        <v>45194</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>683.58</v>
+        <v>187.4</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>683.58</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -990,25 +990,25 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>45177</v>
+        <v>45189</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1844.48</v>
+        <v>193.6</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1844.48</v>
+        <v>193.6</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1016,25 +1016,25 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>264.14</v>
+        <v>202.01</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>256.11</v>
+        <v>202.01</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1042,25 +1042,25 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>45177</v>
+        <v>45195</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34.89</v>
+        <v>220.38</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>26.86</v>
+        <v>220.38</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1068,25 +1068,25 @@
         <v>8</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>45177</v>
+        <v>45170</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1827.63</v>
+        <v>231.45</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1827.63</v>
+        <v>231.45</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1094,25 +1094,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>45180</v>
+        <v>45197</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>202.01</v>
+        <v>234.13</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>202.01</v>
+        <v>234.13</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1120,25 +1120,25 @@
         <v>8</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>45180</v>
+        <v>45188</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1768.05</v>
+        <v>249.25</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1768.05</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1146,25 +1146,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>45180</v>
+        <v>45177</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>991.1</v>
+        <v>264.14</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>991.1</v>
+        <v>256.11</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1172,25 +1172,25 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>99.33</v>
+        <v>274.14</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>99.33</v>
+        <v>274.14</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1198,25 +1198,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>45182</v>
+        <v>45177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>121.53</v>
+        <v>293.82</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>121.53</v>
+        <v>293.82</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1224,25 +1224,25 @@
         <v>8</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>45182</v>
+        <v>45194</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>274.14</v>
+        <v>302.54</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>274.14</v>
+        <v>302.54</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1250,25 +1250,25 @@
         <v>8</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>45182</v>
+        <v>45175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1.46</v>
+        <v>325.04</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1.46</v>
+        <v>325.04</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1276,25 +1276,25 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>45182</v>
+        <v>45174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>150.64</v>
+        <v>348.15</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>150.64</v>
+        <v>348.15</v>
       </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1302,25 +1302,25 @@
         <v>8</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0</v>
+        <v>361.57</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.04</v>
+        <v>361.57</v>
       </c>
     </row>
     <row r="42" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1328,25 +1328,25 @@
         <v>8</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>45183</v>
+        <v>45174</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>670.1</v>
+        <v>369.68</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>670.1</v>
+        <v>369.68</v>
       </c>
     </row>
     <row r="43" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1354,25 +1354,25 @@
         <v>8</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>45183</v>
+        <v>45174</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>515.16</v>
+        <v>395.24</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>515.16</v>
+        <v>395.24</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1380,25 +1380,25 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>45184</v>
+        <v>45170</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>489.76</v>
+        <v>420.86</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>489.76</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1406,25 +1406,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>45184</v>
+        <v>45198</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1468.7</v>
+        <v>442.27</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>1468.7</v>
+        <v>442.27</v>
       </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1432,25 +1432,25 @@
         <v>8</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>45184</v>
+        <v>45190</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>483.51</v>
+        <v>473.99</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>475.48</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1461,22 +1461,22 @@
         <v>45184</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>132.16</v>
+        <v>483.51</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>-8.03</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>124.13</v>
+        <v>475.48</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1484,25 +1484,25 @@
         <v>8</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>117.12</v>
+        <v>488.71</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>109.09</v>
+        <v>488.71</v>
       </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1513,22 +1513,22 @@
         <v>45184</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>700.63</v>
+        <v>489.76</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>700.63</v>
+        <v>489.76</v>
       </c>
     </row>
     <row r="50" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1536,25 +1536,25 @@
         <v>8</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>45184</v>
+        <v>45170</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F50" s="5" t="n">
-        <v>17.38</v>
+        <v>502.98</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>17.38</v>
+        <v>502.98</v>
       </c>
     </row>
     <row r="51" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1562,25 +1562,25 @@
         <v>8</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>45187</v>
+        <v>45183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>87.28</v>
+        <v>515.16</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>87.28</v>
+        <v>515.16</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1588,25 +1588,25 @@
         <v>8</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>45187</v>
+        <v>45170</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1521.56</v>
+        <v>523.23</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1521.56</v>
+        <v>523.23</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1614,25 +1614,25 @@
         <v>8</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>45187</v>
+        <v>45175</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>69.65</v>
+        <v>536.09</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>69.65</v>
+        <v>536.09</v>
       </c>
     </row>
     <row r="54" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1640,25 +1640,25 @@
         <v>8</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>45187</v>
+        <v>45170</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>92.53</v>
+        <v>561.32</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>92.53</v>
+        <v>561.32</v>
       </c>
     </row>
     <row r="55" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1666,25 +1666,25 @@
         <v>8</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>766.83</v>
+        <v>579.11</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>766.83</v>
+        <v>579.11</v>
       </c>
     </row>
     <row r="56" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1692,25 +1692,25 @@
         <v>8</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>45188</v>
+        <v>45198</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>249.25</v>
+        <v>599.68</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>249.25</v>
+        <v>599.68</v>
       </c>
     </row>
     <row r="57" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1718,25 +1718,25 @@
         <v>8</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>45188</v>
+        <v>45195</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>22900.82</v>
+        <v>640.99</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>22900.82</v>
+        <v>640.99</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1747,22 +1747,22 @@
         <v>45189</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>762.25</v>
+        <v>642.85</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>762.25</v>
+        <v>642.85</v>
       </c>
     </row>
     <row r="59" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1770,25 +1770,25 @@
         <v>8</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>45189</v>
+        <v>45183</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>642.85</v>
+        <v>670.1</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>642.85</v>
+        <v>670.1</v>
       </c>
     </row>
     <row r="60" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1796,25 +1796,25 @@
         <v>8</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>45189</v>
+        <v>45177</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>9656.77</v>
+        <v>683.58</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>9656.77</v>
+        <v>683.58</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1822,25 +1822,25 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>45189</v>
+        <v>45184</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F61" s="5" t="n">
-        <v>193.6</v>
+        <v>700.63</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>193.6</v>
+        <v>700.63</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1851,22 +1851,22 @@
         <v>45189</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>0</v>
+        <v>762.25</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>-4.47</v>
+        <v>0</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>-4.47</v>
+        <v>762.25</v>
       </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1874,25 +1874,25 @@
         <v>8</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>45190</v>
+        <v>45188</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>473.99</v>
+        <v>766.83</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>473.99</v>
+        <v>766.83</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1900,25 +1900,25 @@
         <v>8</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>45190</v>
+        <v>45175</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>109.44</v>
+        <v>772.73</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>109.44</v>
+        <v>772.73</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1929,13 +1929,13 @@
         <v>45191</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>779.74</v>
@@ -1952,25 +1952,25 @@
         <v>8</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>45191</v>
+        <v>45195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>39.82</v>
+        <v>823.9</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>31.79</v>
+        <v>823.9</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -1978,25 +1978,25 @@
         <v>8</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>45191</v>
+        <v>45170</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>150.66</v>
+        <v>887.32</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>-8.03</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>142.63</v>
+        <v>879.29</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2004,25 +2004,25 @@
         <v>8</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>45191</v>
+        <v>45170</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>488.71</v>
+        <v>920.08</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>488.71</v>
+        <v>912.05</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2030,25 +2030,25 @@
         <v>8</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>45194</v>
+        <v>45175</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>579.11</v>
+        <v>941.23</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="5" t="n">
-        <v>579.11</v>
+        <v>941.23</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2056,25 +2056,25 @@
         <v>8</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>45194</v>
+        <v>45170</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>302.54</v>
+        <v>977.4</v>
       </c>
       <c r="G70" s="5" t="n">
-        <v>0</v>
+        <v>-8.03</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>302.54</v>
+        <v>969.37</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2082,25 +2082,25 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>45194</v>
+        <v>45180</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>1944.26</v>
+        <v>991.1</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="5" t="n">
-        <v>1944.26</v>
+        <v>991.1</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2108,25 +2108,25 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>45194</v>
+        <v>45173</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>1941.71</v>
+        <v>1432.09</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="5" t="n">
-        <v>1941.71</v>
+        <v>1432.09</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2134,25 +2134,25 @@
         <v>8</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>45194</v>
+        <v>45184</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>187.4</v>
+        <v>1468.7</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H73" s="5" t="n">
-        <v>187.4</v>
+        <v>1468.7</v>
       </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2160,25 +2160,25 @@
         <v>8</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>45194</v>
+        <v>45175</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>57.26</v>
+        <v>1483.75</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H74" s="5" t="n">
-        <v>57.26</v>
+        <v>1483.75</v>
       </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2186,25 +2186,25 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>45195</v>
+        <v>45187</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>0</v>
+        <v>1521.56</v>
       </c>
       <c r="G75" s="5" t="n">
-        <v>-211.8</v>
+        <v>0</v>
       </c>
       <c r="H75" s="5" t="n">
-        <v>-211.8</v>
+        <v>1521.56</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2212,25 +2212,25 @@
         <v>8</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>45195</v>
+        <v>45180</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>640.99</v>
+        <v>1768.05</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H76" s="5" t="n">
-        <v>640.99</v>
+        <v>1768.05</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2238,25 +2238,25 @@
         <v>8</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>45195</v>
+        <v>45177</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>823.9</v>
+        <v>1827.63</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H77" s="5" t="n">
-        <v>823.9</v>
+        <v>1827.63</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2264,25 +2264,25 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>45195</v>
+        <v>45177</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>220.38</v>
+        <v>1844.48</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H78" s="5" t="n">
-        <v>220.38</v>
+        <v>1844.48</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2290,25 +2290,25 @@
         <v>8</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>45195</v>
+        <v>45173</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>26754.25</v>
+        <v>1927.93</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H79" s="5" t="n">
-        <v>26754.25</v>
+        <v>1927.93</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2316,25 +2316,25 @@
         <v>8</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>45196</v>
+        <v>45194</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>81.24</v>
+        <v>1941.71</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="5" t="n">
-        <v>81.24</v>
+        <v>1941.71</v>
       </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2342,25 +2342,25 @@
         <v>8</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>45196</v>
+        <v>45194</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>361.57</v>
+        <v>1944.26</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="5" t="n">
-        <v>361.57</v>
+        <v>1944.26</v>
       </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2368,25 +2368,25 @@
         <v>8</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>45196</v>
+        <v>45173</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>46.92</v>
+        <v>2149.52</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="5" t="n">
-        <v>46.92</v>
+        <v>2149.52</v>
       </c>
     </row>
     <row r="83" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2394,25 +2394,25 @@
         <v>8</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>45196</v>
+        <v>45173</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>0</v>
+        <v>7484.01</v>
       </c>
       <c r="G83" s="5" t="n">
-        <v>-2.39</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5" t="n">
-        <v>-2.39</v>
+        <v>7484.01</v>
       </c>
     </row>
     <row r="84" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2420,25 +2420,25 @@
         <v>8</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>45197</v>
+        <v>45189</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>165.22</v>
+        <v>9656.77</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H84" s="5" t="n">
-        <v>165.22</v>
+        <v>9656.77</v>
       </c>
     </row>
     <row r="85" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2446,25 +2446,25 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>45197</v>
+        <v>45174</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>234.13</v>
+        <v>14463.73</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H85" s="5" t="n">
-        <v>234.13</v>
+        <v>14463.73</v>
       </c>
     </row>
     <row r="86" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2472,25 +2472,25 @@
         <v>8</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>45198</v>
+        <v>45188</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>442.27</v>
+        <v>22900.82</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H86" s="5" t="n">
-        <v>442.27</v>
+        <v>22900.82</v>
       </c>
     </row>
     <row r="87" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -2498,25 +2498,25 @@
         <v>8</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>45198</v>
+        <v>45195</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>599.68</v>
+        <v>26754.25</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H87" s="5" t="n">
-        <v>599.68</v>
+        <v>26754.25</v>
       </c>
     </row>
     <row r="88" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">

--- a/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
+++ b/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
@@ -248,13 +248,13 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col width="35.57" min="1" max="1" customWidth="1"/>
-    <col width="40.86" min="2" max="2" customWidth="1"/>
-    <col width="39.43" min="3" max="3" customWidth="1"/>
-    <col width="28.71" min="4" max="4" customWidth="1"/>
+    <col width="40.71" min="2" max="2" customWidth="1"/>
+    <col width="39.29" min="3" max="3" customWidth="1"/>
+    <col width="28.57" min="4" max="4" customWidth="1"/>
     <col width="38.14" min="5" max="5" customWidth="1"/>
-    <col width="24.57" min="6" max="6" customWidth="1"/>
+    <col width="24.43" min="6" max="6" customWidth="1"/>
     <col width="23.57" min="7" max="7" customWidth="1"/>
-    <col width="21.86" min="8" max="8" customWidth="1"/>
+    <col width="21.71" min="8" max="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">

--- a/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
+++ b/cypress/downloads/Pagamentos  por Conta Bancária.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Mês Pagamento</t>
   </si>
@@ -41,7 +41,121 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>09/2023</t>
+  </si>
+  <si>
+    <t>001 / 03070 / 126985</t>
+  </si>
+  <si>
+    <t>Cielo</t>
+  </si>
+  <si>
+    <t>VISA CREDITO A VISTA</t>
+  </si>
+  <si>
+    <t>Não informado</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Não Informado</t>
+  </si>
+  <si>
+    <t>001 / 3790 / 1355953</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>TICKET ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>341 / 5929 / 113644</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>CABAL VOUCHER</t>
+  </si>
+  <si>
+    <t>Sodexo</t>
+  </si>
+  <si>
+    <t>SODEXO ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>TICKET REFEICAO</t>
+  </si>
+  <si>
+    <t>001 / 3790 / 1355910</t>
+  </si>
+  <si>
+    <t>001 / 03070 / 150266</t>
+  </si>
+  <si>
+    <t>ELO PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>MASTER PARCELADO</t>
+  </si>
+  <si>
+    <t>SODEXO REFEICAO</t>
+  </si>
+  <si>
+    <t>341 / 5929 / 011364</t>
+  </si>
+  <si>
+    <t>Green Card</t>
+  </si>
+  <si>
+    <t>Green Card Débito</t>
+  </si>
+  <si>
+    <t>341 / 059290 / 113644</t>
+  </si>
+  <si>
+    <t>UpBrasil</t>
+  </si>
+  <si>
+    <t>UpBrasil Crédito</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>001 / 3790 / 135591X</t>
+  </si>
+  <si>
+    <t>VR ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>Ticket Flex</t>
+  </si>
+  <si>
+    <t>AMEX CREDITO PARCELADO</t>
+  </si>
+  <si>
+    <t>UpBrasil Convênio</t>
+  </si>
+  <si>
+    <t>237 / 30457 / 105546</t>
+  </si>
+  <si>
+    <t>Valecard</t>
+  </si>
+  <si>
+    <t>Valecard Voucher</t>
+  </si>
+  <si>
+    <t>125.476,92</t>
+  </si>
+  <si>
+    <t>-373,65</t>
+  </si>
+  <si>
+    <t>125.103,27</t>
   </si>
 </sst>
 </file>
@@ -133,14 +247,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="37.71" min="1" max="1" customWidth="1"/>
-    <col width="43.14" min="2" max="2" customWidth="1"/>
-    <col width="41.57" min="3" max="3" customWidth="1"/>
-    <col width="30.29" min="4" max="4" customWidth="1"/>
-    <col width="25.57" min="5" max="5" customWidth="1"/>
-    <col width="26" min="6" max="6" customWidth="1"/>
-    <col width="25" min="7" max="7" customWidth="1"/>
-    <col width="23.14" min="8" max="8" customWidth="1"/>
+    <col width="35.57" min="1" max="1" customWidth="1"/>
+    <col width="40.71" min="2" max="2" customWidth="1"/>
+    <col width="39.29" min="3" max="3" customWidth="1"/>
+    <col width="28.57" min="4" max="4" customWidth="1"/>
+    <col width="38.14" min="5" max="5" customWidth="1"/>
+    <col width="24.43" min="6" max="6" customWidth="1"/>
+    <col width="23.57" min="7" max="7" customWidth="1"/>
+    <col width="21.71" min="8" max="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -170,24 +284,2260 @@
       </c>
     </row>
     <row r="2" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>-211.8</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>-211.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>-58.86</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>-58.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-6.76</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-6.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>34.89</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>46.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>57.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>69.65</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>69.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>81.24</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>81.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>92.53</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>92.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>99.33</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>117.12</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>109.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>109.44</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>109.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>121.53</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>121.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>132.16</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>124.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>150.66</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>142.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>142.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>150.64</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>150.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>160.49</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>160.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>165.22</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>165.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>202.01</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>202.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>220.38</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>220.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>231.45</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>231.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>234.13</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>234.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>264.14</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>256.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>274.14</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>274.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>293.82</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>293.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>302.54</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>302.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>325.04</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>325.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>348.15</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>348.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>361.57</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>361.57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>369.68</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>369.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>395.24</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>395.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>420.86</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>412.83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>442.27</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>442.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>473.99</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>473.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>483.51</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>475.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>488.71</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>488.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>489.76</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>489.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>502.98</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>502.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>515.16</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>515.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>523.23</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>523.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>536.09</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>536.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>561.32</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>561.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>579.11</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>579.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>599.68</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>599.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>640.99</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>640.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>642.85</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>642.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>670.1</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>670.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>683.58</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>683.58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>700.63</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>700.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>762.25</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>762.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>766.83</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>766.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>772.73</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>772.73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>779.74</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>779.74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>823.9</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>823.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>887.32</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>879.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>920.08</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>912.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>941.23</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>941.23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>977.4</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>969.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>991.1</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>991.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>1432.09</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>1432.09</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>1468.7</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>1468.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>1483.75</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>1483.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>1521.56</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>1521.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>1768.05</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>1768.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>1827.63</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>1827.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>1844.48</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>1844.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>1927.93</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>1927.93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>1941.71</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>1941.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>1944.26</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>1944.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>2149.52</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>2149.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>7484.01</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>7484.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>9656.77</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <v>9656.77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>14463.73</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <v>14463.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>22900.82</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5" t="n">
+        <v>22900.82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>26754.25</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5" t="n">
+        <v>26754.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s"/>
+      <c r="B88" s="1" t="s"/>
+      <c r="C88" s="1" t="s"/>
+      <c r="D88" s="1" t="s"/>
+      <c r="E88" s="1" t="s"/>
+      <c r="F88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:H2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H88" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>